--- a/materials/slides/签到系统Web接口文档.xlsx
+++ b/materials/slides/签到系统Web接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="14880" windowHeight="7470" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="14880" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="1 添加发布会接口" sheetId="1" r:id="rId1"/>
@@ -298,12 +298,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">http://127.0.0.1:8001/api/add_event/
+    <t>http://127.0.0.1:8001/api/get_guest_list/?eid=1&amp;phone=13511001101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://10.7.90.21:8001/api/add_event/
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8001/api/get_guest_list/?eid=1&amp;phone=13511001101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,6 +421,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,12 +435,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -527,7 +527,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,10 +819,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -844,8 +844,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>53</v>
+      <c r="B4" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -926,10 +926,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1019,10 +1019,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1099,7 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1110,10 +1110,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1135,8 +1135,8 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>54</v>
+      <c r="B4" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -1204,10 +1204,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
